--- a/springmvc/springmvc原理流程.xlsx
+++ b/springmvc/springmvc原理流程.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chiun.guo\Desktop\Interview\Interview\springmvc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80F6044C-F02D-4746-9B8B-932439BB68CD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A0F558B-CA42-4D1A-A763-BF6A8A42B11D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18360" windowHeight="12705" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -207,15 +207,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>48895</xdr:colOff>
+      <xdr:colOff>1270</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>143510</xdr:colOff>
+      <xdr:colOff>95885</xdr:colOff>
       <xdr:row>61</xdr:row>
-      <xdr:rowOff>132715</xdr:rowOff>
+      <xdr:rowOff>123190</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -238,7 +238,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="267970" y="6896100"/>
+          <a:off x="220345" y="6886575"/>
           <a:ext cx="6228715" cy="3695065"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -948,8 +948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B207"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A237" workbookViewId="0">
-      <selection activeCell="E250" sqref="E250"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A245" workbookViewId="0">
+      <selection activeCell="AI43" sqref="AI43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
